--- a/Unity/Assets/Config/Excel/EquipConfig@cs.xlsx
+++ b/Unity/Assets/Config/Excel/EquipConfig@cs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAEE1F5-D911-4B24-8E07-BA45EF6761DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024DE506-FC9B-4103-ABD5-75168FABA624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,11 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
-  <si>
-    <t>s词条随机Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
   <si>
     <t>EquipPosition</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -283,6 +279,14 @@
 5, //武器
 6, //副手
 7, //裤子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>词条随机Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -771,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -785,161 +789,164 @@
   <sheetData>
     <row r="1" spans="3:20" ht="105.6" x14ac:dyDescent="0.3">
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="3:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="Q2" s="2"/>
+      <c r="R2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="R3" s="1" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
@@ -947,13 +954,13 @@
         <v>1001</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="9">
         <v>5</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="9">
         <v>120</v>
@@ -997,13 +1004,13 @@
         <v>1002</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="11">
         <v>6</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="11">
         <v>100</v>
@@ -1047,13 +1054,13 @@
         <v>1003</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="9">
         <v>50</v>
@@ -1097,13 +1104,13 @@
         <v>1004</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="11">
         <v>2</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="11">
         <v>50</v>
@@ -1148,13 +1155,13 @@
         <v>1005</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="9">
         <v>4</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="9">
         <v>80</v>
@@ -1198,13 +1205,13 @@
         <v>1006</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="14">
         <v>7</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="14">
         <v>50</v>
@@ -1248,13 +1255,13 @@
         <v>1007</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="9">
         <v>3</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="9">
         <v>80</v>
@@ -1298,13 +1305,13 @@
         <v>2001</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="11">
         <v>5</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="11">
         <v>120</v>
@@ -1348,13 +1355,13 @@
         <v>2002</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="9">
         <v>6</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" s="9">
         <v>100</v>
@@ -1398,13 +1405,13 @@
         <v>2003</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="11">
         <v>50</v>
@@ -1448,13 +1455,13 @@
         <v>2004</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="9">
         <v>2</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="9">
         <v>50</v>
@@ -1498,13 +1505,13 @@
         <v>2005</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="11">
         <v>4</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="11">
         <v>80</v>
@@ -1548,13 +1555,13 @@
         <v>2006</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="13">
         <v>7</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="9">
         <v>50</v>
@@ -1598,13 +1605,13 @@
         <v>2007</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="11">
         <v>3</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="11">
         <v>80</v>
@@ -1648,13 +1655,13 @@
         <v>3001</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="9">
         <v>5</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="9">
         <v>120</v>
@@ -1698,13 +1705,13 @@
         <v>3002</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="11">
         <v>6</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" s="11">
         <v>100</v>
@@ -1748,13 +1755,13 @@
         <v>3003</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" s="9">
         <v>50</v>
@@ -1798,13 +1805,13 @@
         <v>3004</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="11">
         <v>50</v>
@@ -1848,13 +1855,13 @@
         <v>3005</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="9">
         <v>4</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="9">
         <v>80</v>
@@ -1898,13 +1905,13 @@
         <v>3006</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="14">
         <v>7</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" s="11">
         <v>50</v>
@@ -1948,13 +1955,13 @@
         <v>3007</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="9">
         <v>3</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" s="9">
         <v>80</v>
@@ -1998,13 +2005,13 @@
         <v>1011</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="11">
         <v>5</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" s="11">
         <v>240</v>
@@ -2048,13 +2055,13 @@
         <v>1012</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="9">
         <v>6</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="9">
         <v>200</v>
@@ -2098,13 +2105,13 @@
         <v>1013</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="11">
         <v>1</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" s="11">
         <v>100</v>
@@ -2148,13 +2155,13 @@
         <v>1014</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="9">
         <v>2</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="9">
         <v>100</v>
@@ -2198,13 +2205,13 @@
         <v>1015</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="11">
         <v>4</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="11">
         <v>160</v>
@@ -2248,13 +2255,13 @@
         <v>1016</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" s="13">
         <v>7</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="9">
         <v>100</v>
@@ -2298,13 +2305,13 @@
         <v>1017</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="11">
         <v>3</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" s="11">
         <v>160</v>
@@ -2348,13 +2355,13 @@
         <v>2011</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" s="9">
         <v>5</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" s="9">
         <v>240</v>
@@ -2398,13 +2405,13 @@
         <v>2012</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" s="11">
         <v>6</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" s="11">
         <v>200</v>
@@ -2448,13 +2455,13 @@
         <v>2013</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="9">
         <v>1</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" s="9">
         <v>100</v>
@@ -2498,13 +2505,13 @@
         <v>2014</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37" s="11">
         <v>2</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" s="11">
         <v>100</v>
@@ -2548,13 +2555,13 @@
         <v>2015</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="9">
         <v>4</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" s="9">
         <v>160</v>
@@ -2598,13 +2605,13 @@
         <v>2016</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" s="14">
         <v>7</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" s="11">
         <v>100</v>
@@ -2648,13 +2655,13 @@
         <v>2017</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="9">
         <v>3</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40" s="9">
         <v>160</v>
@@ -2698,13 +2705,13 @@
         <v>3011</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E41" s="11">
         <v>5</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G41" s="11">
         <v>240</v>
@@ -2748,13 +2755,13 @@
         <v>3012</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="9">
         <v>6</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42" s="9">
         <v>200</v>
@@ -2798,13 +2805,13 @@
         <v>3013</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E43" s="11">
         <v>1</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G43" s="11">
         <v>100</v>
@@ -2848,13 +2855,13 @@
         <v>3014</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E44" s="9">
         <v>2</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" s="9">
         <v>100</v>
@@ -2898,13 +2905,13 @@
         <v>3015</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="11">
         <v>4</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G45" s="11">
         <v>160</v>
@@ -2948,13 +2955,13 @@
         <v>3016</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="13">
         <v>7</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" s="9">
         <v>100</v>
@@ -2998,13 +3005,13 @@
         <v>3017</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="11">
         <v>3</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47" s="11">
         <v>160</v>
